--- a/src/routes/students/upload/TestData.xlsx
+++ b/src/routes/students/upload/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin\Documents\GitHub\quest\frontend\src\routes\students\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFC2FC5-3FDB-40C4-9E2C-CCBF42E48BC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3100F879-7BFB-4CA8-AB79-0FCF7B2F4E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8B374D6A-B95B-45EE-AB9E-B7DA1D552B95}"/>
   </bookViews>
@@ -34,24 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>Jerry</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Mouse</t>
   </si>
 </sst>
 </file>
@@ -406,42 +409,45 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/routes/students/upload/TestData.xlsx
+++ b/src/routes/students/upload/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin\Documents\GitHub\quest\frontend\src\routes\students\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3100F879-7BFB-4CA8-AB79-0FCF7B2F4E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60708AB-E42E-4D04-B69D-3179E01CB745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8B374D6A-B95B-45EE-AB9E-B7DA1D552B95}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Age</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tom</t>
   </si>
@@ -45,26 +42,49 @@
     <t>Jerry</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Mouse</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>home number</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>tom@u.nus.edu</t>
+  </si>
+  <si>
+    <t>jerry@u.nus.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,51 +430,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9EF0B2-5EC9-47FD-B438-F43473A088C9}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40180</v>
+      </c>
+      <c r="D2">
+        <v>91234567</v>
+      </c>
+      <c r="E2">
+        <v>81234567</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42038</v>
+      </c>
+      <c r="D3">
+        <v>91234567</v>
+      </c>
+      <c r="E3">
+        <v>81234567</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{31EC52F9-C57A-4EAA-BF95-A134C9A837F3}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1F257833-3EB3-490C-A109-9CECCF5FBB45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>